--- a/Preisermittlung_Inmoov.xlsx
+++ b/Preisermittlung_Inmoov.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\GitHub\Humanoid-Robot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Desktop\Schule\Humanoid-Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{544D2134-0764-483C-96F1-F6CDAFF884CE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429936B7-F041-4F05-BA18-CE512B2488A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" xr2:uid="{15A32CED-2532-4675-A496-20CF1B18E817}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4080" xr2:uid="{15A32CED-2532-4675-A496-20CF1B18E817}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>InMoov</t>
   </si>
@@ -105,16 +105,27 @@
   </si>
   <si>
     <t>http://inmoov.fr/product/nervo-board-components/</t>
+  </si>
+  <si>
+    <t>Arduino Mega</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Kuman-Mega2560-ATmega2560-16AU-ATMEGA16U2-MEGA2560/dp/B07B5ZPJ4G/ref=sr_1_8?ie=UTF8&amp;qid=1541363264&amp;sr=8-8&amp;keywords=arduino+mega+2560</t>
+  </si>
+  <si>
+    <t>Control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
+    <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +148,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,11 +173,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -168,8 +187,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Komma" xfId="2" builtinId="3"/>
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -483,23 +504,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7822EB-755B-4946-AC34-CABD48917400}">
-  <dimension ref="A2:O17"/>
+  <dimension ref="A2:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -512,7 +533,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -535,7 +556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -559,7 +580,7 @@
         <v>200.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -580,7 +601,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -604,7 +625,7 @@
         <v>284.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -628,7 +649,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -649,7 +670,7 @@
         <v>20.05</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -670,7 +691,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -694,7 +715,7 @@
         <v>142.4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -715,10 +736,31 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>12.98</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="O17" s="2">
-        <f>SUM(O4:O16)</f>
-        <v>813.19</v>
+        <f>G17*D17</f>
+        <v>25.96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="2">
+        <f>SUM(O4:O17)</f>
+        <v>839.15000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -734,8 +776,9 @@
     <hyperlink ref="F11" r:id="rId6" xr:uid="{4CAADE96-FEE8-4A2C-BEE9-5716F2080A69}"/>
     <hyperlink ref="H13" r:id="rId7" xr:uid="{5CF5A0E5-6695-4315-AD3F-EC43DEF1B6D6}"/>
     <hyperlink ref="J15" r:id="rId8" xr:uid="{6C0CE643-2AD7-4EB6-B615-9C386188D7AB}"/>
+    <hyperlink ref="H17" r:id="rId9" xr:uid="{530570FB-25F7-47A9-A00A-7861F272D595}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>